--- a/src/test/data/anno_DefaultValue.xlsx
+++ b/src/test/data/anno_DefaultValue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>アノテーション「@XlsDefautlValue」のテスタ</t>
     <phoneticPr fontId="3"/>
@@ -93,6 +93,20 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空のセル（初期値設定あり）(読み込み時)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空のセル（初期値設定あり）(書き込み時)</t>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -461,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -512,6 +526,18 @@
       </c>
       <c r="C8" s="3"/>
     </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
